--- a/CommanderParametersFile.xlsx
+++ b/CommanderParametersFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\WIFI app\WIFI Config App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF526656-74B8-4FD4-A69C-CC96DB031003}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855AFF29-4B40-490F-80F4-2A3B15DB28E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7320" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>Name</t>
   </si>
@@ -994,12 +994,6 @@
   </si>
   <si>
     <t>Local_PedestriansCritical_Action3</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,360 +1489,360 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>322</v>
+      <c r="E8">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>322</v>
+      <c r="E9">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C10" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>322</v>
+      <c r="E10">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C11" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>322</v>
+      <c r="E11">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C12" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>322</v>
+      <c r="E12">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C13" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>322</v>
+      <c r="E13">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C14" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>322</v>
+      <c r="E14">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C15" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>322</v>
+      <c r="E15">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C16" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>322</v>
+      <c r="E16">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C17" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>322</v>
+      <c r="E17">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C18" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>322</v>
+      <c r="E18">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C19" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>322</v>
+      <c r="E19">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C20" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>322</v>
+      <c r="E20">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C21" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>322</v>
+      <c r="E21">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C22" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>322</v>
+      <c r="E22">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C23" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>322</v>
+      <c r="E23">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C24" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>322</v>
+      <c r="E24">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C25" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>322</v>
+      <c r="E25">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C26" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>322</v>
+      <c r="E26">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C27" t="s">
-        <v>321</v>
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>322</v>
+      <c r="E27">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
